--- a/favorite.xlsx
+++ b/favorite.xlsx
@@ -734,10 +734,10 @@
         <v>2026-01-20</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="str">
-        <v>videos\2026-01-20\12.mp4</v>
+        <v>处理媒体文件失败: GENERATE_AUDIO is not defined</v>
       </c>
     </row>
     <row r="14">
@@ -760,10 +760,10 @@
         <v>2026-01-20</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="str">
-        <v>videos\2026-01-20\13.mp4</v>
+        <v>处理媒体文件失败: GENERATE_AUDIO is not defined</v>
       </c>
     </row>
     <row r="15">

--- a/favorite.xlsx
+++ b/favorite.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -427,6 +427,9 @@
       <c r="H1" t="str">
         <v>本地地址</v>
       </c>
+      <c r="I1" t="str">
+        <v>音频状态</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -448,9 +451,12 @@
         <v>2026-01-19</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="str">
+        <v>无法获取有效的视频下载地址 (可能是Blob加密流)</v>
+      </c>
+      <c r="I2" t="str">
         <v/>
       </c>
     </row>
@@ -479,6 +485,9 @@
       <c r="H3" t="str">
         <v/>
       </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -505,6 +514,9 @@
       <c r="H4" t="str">
         <v/>
       </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -531,6 +543,9 @@
       <c r="H5" t="str">
         <v/>
       </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -557,6 +572,9 @@
       <c r="H6" t="str">
         <v/>
       </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -583,6 +601,9 @@
       <c r="H7" t="str">
         <v/>
       </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -609,6 +630,9 @@
       <c r="H8" t="str">
         <v/>
       </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -635,6 +659,9 @@
       <c r="H9" t="str">
         <v/>
       </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -661,6 +688,9 @@
       <c r="H10" t="str">
         <v/>
       </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -687,6 +717,9 @@
       <c r="H11" t="str">
         <v/>
       </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -713,31 +746,37 @@
       <c r="H12" t="str">
         <v/>
       </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>Superpowers让Claude Code写出工程级代码 🚀告别Vibe Coding</v>
+        <v>用第一性原理拆解 Agentic Coding：从理论到实操</v>
       </c>
       <c r="C13" t="str">
-        <v>视频</v>
+        <v>文章</v>
       </c>
       <c r="D13" t="str">
         <v>无分类</v>
       </c>
       <c r="E13" t="str">
-        <v>https://www.toutiao.com/video/7594284504965972534/</v>
+        <v>https://www.toutiao.com/article/7594421688560108058/</v>
       </c>
       <c r="F13" t="str">
         <v>2026-01-20</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="str">
-        <v>处理媒体文件失败: GENERATE_AUDIO is not defined</v>
+        <v>articles\2026-01-20\12.txt</v>
+      </c>
+      <c r="I13" t="str">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -745,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <v>OpenCode 实测｜从零开发一个 AI 应用 OpenC</v>
+        <v>Superpowers让Claude Code写出工程级代码 🚀告别Vibe Coding</v>
       </c>
       <c r="C14" t="str">
         <v>视频</v>
@@ -754,16 +793,19 @@
         <v>无分类</v>
       </c>
       <c r="E14" t="str">
-        <v>https://www.toutiao.com/video/7596796302269088296/</v>
+        <v>https://www.toutiao.com/video/7594284504965972534/</v>
       </c>
       <c r="F14" t="str">
         <v>2026-01-20</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" t="str">
-        <v>处理媒体文件失败: GENERATE_AUDIO is not defined</v>
+        <v>videos\2026-01-20\13.mp4</v>
+      </c>
+      <c r="I14" t="str">
+        <v>已提取</v>
       </c>
     </row>
     <row r="15">
@@ -771,16 +813,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <v>Anthropic一夜震撼升级：Claude获得「永久记忆」！全球打工人变天</v>
+        <v>OpenCode 实测｜从零开发一个 AI 应用 OpenC</v>
       </c>
       <c r="C15" t="str">
-        <v>文章</v>
+        <v>视频</v>
       </c>
       <c r="D15" t="str">
         <v>无分类</v>
       </c>
       <c r="E15" t="str">
-        <v>https://www.toutiao.com/article/7597010637322994176/</v>
+        <v>https://www.toutiao.com/video/7596796302269088296/</v>
       </c>
       <c r="F15" t="str">
         <v>2026-01-20</v>
@@ -789,12 +831,44 @@
         <v>1</v>
       </c>
       <c r="H15" t="str">
-        <v>articles\2026-01-20\14.txt</v>
+        <v>videos\2026-01-20\14.mp4</v>
+      </c>
+      <c r="I15" t="str">
+        <v>已提取</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Anthropic一夜震撼升级：Claude获得「永久记忆」！全球打工人变天</v>
+      </c>
+      <c r="C16" t="str">
+        <v>文章</v>
+      </c>
+      <c r="D16" t="str">
+        <v>无分类</v>
+      </c>
+      <c r="E16" t="str">
+        <v>https://www.toutiao.com/article/7597010637322994176/</v>
+      </c>
+      <c r="F16" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="str">
+        <v>articles\2026-01-20\15.txt</v>
+      </c>
+      <c r="I16" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I16"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/favorite.xlsx
+++ b/favorite.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -451,10 +451,10 @@
         <v>2026-01-19</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="str">
-        <v>无法获取有效的视频下载地址 (可能是Blob加密流)</v>
+        <v/>
       </c>
       <c r="I2" t="str">
         <v/>
@@ -866,9 +866,183 @@
         <v/>
       </c>
     </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <v>扣子2.0全新升级！快来看看我开发的网页应用吧</v>
+      </c>
+      <c r="C17" t="str">
+        <v>视频</v>
+      </c>
+      <c r="D17" t="str">
+        <v>#扣子编程</v>
+      </c>
+      <c r="E17" t="str">
+        <v>https://www.toutiao.com/video/7597347992571478528/</v>
+      </c>
+      <c r="F17" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="str">
+        <v>videos\2026-01-20\16.mp4</v>
+      </c>
+      <c r="I17" t="str">
+        <v>已提取</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Claude Cowork（实测）：这新功能太上头了，我可能要玩上瘾！</v>
+      </c>
+      <c r="C18" t="str">
+        <v>视频</v>
+      </c>
+      <c r="D18" t="str">
+        <v>#ClaudeCowork</v>
+      </c>
+      <c r="E18" t="str">
+        <v>https://www.toutiao.com/video/7595140659170771491/</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="str">
+        <v>videos\2026-01-20\17.mp4</v>
+      </c>
+      <c r="I18" t="str">
+        <v>已提取</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <v>用上这个Skill，你的Claude Code/Codex 将会比别人快5倍 -- 用分布式思维驯服AI任务编排</v>
+      </c>
+      <c r="C19" t="str">
+        <v>文章</v>
+      </c>
+      <c r="D19" t="str">
+        <v>无分类</v>
+      </c>
+      <c r="E19" t="str">
+        <v>https://www.toutiao.com/article/7594654759382991398/</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="str">
+        <v>articles\2026-01-20\18.txt</v>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="str">
+        <v>为什么Agent总是Demo猛如龙实战一条虫？</v>
+      </c>
+      <c r="C20" t="str">
+        <v>文章</v>
+      </c>
+      <c r="D20" t="str">
+        <v>无分类</v>
+      </c>
+      <c r="E20" t="str">
+        <v>https://www.toutiao.com/article/7586626602591732262/</v>
+      </c>
+      <c r="F20" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="str">
+        <v>articles\2026-01-20\19.txt</v>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="str">
+        <v>手把手教你用上开源版Claude Code，人人都可以体验编程Agent的魅力了。</v>
+      </c>
+      <c r="C21" t="str">
+        <v>文章</v>
+      </c>
+      <c r="D21" t="str">
+        <v>无分类</v>
+      </c>
+      <c r="E21" t="str">
+        <v>https://www.toutiao.com/article/7594454191276294719/</v>
+      </c>
+      <c r="F21" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="str">
+        <v>articles\2026-01-20\20.txt</v>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <v>结合 Cluade Code，我为项目设计了一个 SKILL，AI 输出代码可用率达到了 99%，谈谈真实的使用感受</v>
+      </c>
+      <c r="C22" t="str">
+        <v>文章</v>
+      </c>
+      <c r="D22" t="str">
+        <v>无分类</v>
+      </c>
+      <c r="E22" t="str">
+        <v>https://www.toutiao.com/article/7596202303636439552/</v>
+      </c>
+      <c r="F22" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="str">
+        <v>articles\2026-01-20\21.txt</v>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I22"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/favorite.xlsx
+++ b/favorite.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -430,6 +430,12 @@
       <c r="I1" t="str">
         <v>音频状态</v>
       </c>
+      <c r="J1" t="str">
+        <v>Notion状态</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Notion链接</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -457,6 +463,12 @@
         <v/>
       </c>
       <c r="I2" t="str">
+        <v/>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="str">
         <v/>
       </c>
     </row>
@@ -488,6 +500,12 @@
       <c r="I3" t="str">
         <v/>
       </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -517,6 +535,12 @@
       <c r="I4" t="str">
         <v/>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -546,6 +570,12 @@
       <c r="I5" t="str">
         <v/>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -575,6 +605,12 @@
       <c r="I6" t="str">
         <v/>
       </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -604,6 +640,12 @@
       <c r="I7" t="str">
         <v/>
       </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -633,6 +675,12 @@
       <c r="I8" t="str">
         <v/>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -662,6 +710,12 @@
       <c r="I9" t="str">
         <v/>
       </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -691,6 +745,12 @@
       <c r="I10" t="str">
         <v/>
       </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -720,6 +780,12 @@
       <c r="I11" t="str">
         <v/>
       </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -749,6 +815,12 @@
       <c r="I12" t="str">
         <v/>
       </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -778,6 +850,12 @@
       <c r="I13" t="str">
         <v/>
       </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -807,6 +885,12 @@
       <c r="I14" t="str">
         <v>已提取</v>
       </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -836,6 +920,12 @@
       <c r="I15" t="str">
         <v>已提取</v>
       </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -865,6 +955,12 @@
       <c r="I16" t="str">
         <v/>
       </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="str">
+        <v>https://www.notion.so/Anthropic-Claude-2eeca2612e7f81f19a25e8ef6c5464ad</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -894,6 +990,12 @@
       <c r="I17" t="str">
         <v>已提取</v>
       </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -923,6 +1025,12 @@
       <c r="I18" t="str">
         <v>已提取</v>
       </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -952,6 +1060,12 @@
       <c r="I19" t="str">
         <v/>
       </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="str">
+        <v>https://www.notion.so/Skill-Claude-Code-Codex-5-AI-2eeca2612e7f819b95ded4599c2a78ec</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -981,6 +1095,12 @@
       <c r="I20" t="str">
         <v/>
       </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="str">
+        <v>https://www.notion.so/Agent-Demo-2eeca2612e7f816a82a4c4e6e12aa06b</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1010,6 +1130,12 @@
       <c r="I21" t="str">
         <v/>
       </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="str">
+        <v>https://www.notion.so/Claude-Code-Agent-2eeca2612e7f81468456d0eb5d2de793</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1039,10 +1165,156 @@
       <c r="I22" t="str">
         <v/>
       </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="str">
+        <v>https://www.notion.so/Cluade-Code-SKILL-AI-99-2eeca2612e7f8191aa1fc2ed05a3b08e</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Obsidian 「可视化三件套」开源了 这期我把自己常用的 Obsidian</v>
+      </c>
+      <c r="C23" t="str">
+        <v>视频</v>
+      </c>
+      <c r="D23" t="str">
+        <v>无分类</v>
+      </c>
+      <c r="E23" t="str">
+        <v>https://www.toutiao.com/video/7594077209170543156/</v>
+      </c>
+      <c r="F23" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="str">
+        <v>videos\2026-01-20\22.mp4</v>
+      </c>
+      <c r="I23" t="str">
+        <v>已提取</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>我不再相信任何一个 AI：所以我让它们互相辩论 这条视频里</v>
+      </c>
+      <c r="C24" t="str">
+        <v>视频</v>
+      </c>
+      <c r="D24" t="str">
+        <v>无分类</v>
+      </c>
+      <c r="E24" t="str">
+        <v>https://www.toutiao.com/video/7597055416303878675/</v>
+      </c>
+      <c r="F24" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="str">
+        <v>videos\2026-01-20\23.mp4</v>
+      </c>
+      <c r="I24" t="str">
+        <v>已提取</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <v>AI的下一个风口，可能是模型社会。</v>
+      </c>
+      <c r="C25" t="str">
+        <v>视频</v>
+      </c>
+      <c r="D25" t="str">
+        <v>#大咖观察</v>
+      </c>
+      <c r="E25" t="str">
+        <v>https://www.toutiao.com/video/7593948876181897216/</v>
+      </c>
+      <c r="F25" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="str">
+        <v>videos\2026-01-20\24.mp4</v>
+      </c>
+      <c r="I25" t="str">
+        <v>已提取</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>2026年Claude Code Skills排行榜：Top 20完整版（已去重）</v>
+      </c>
+      <c r="C26" t="str">
+        <v>文章</v>
+      </c>
+      <c r="D26" t="str">
+        <v>无分类</v>
+      </c>
+      <c r="E26" t="str">
+        <v>https://www.toutiao.com/article/7597321336280613428/</v>
+      </c>
+      <c r="F26" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="str">
+        <v>articles\2026-01-20\25.txt</v>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="str">
+        <v>https://www.notion.so/2026-Claude-Code-Skills-Top-20-2eeca2612e7f81b8abd8f3e79fd653de</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K26"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/favorite.xlsx
+++ b/favorite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="173">
   <si>
     <t>编号</t>
   </si>
@@ -406,18 +406,169 @@
   <si>
     <t>articles\2026-01-21\32.txt</t>
   </si>
+  <si>
+    <t>Agent Skills：2026年最值得关注的AI玩法 对比MCP | Agent |</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/video/7597739794646434323/</t>
+  </si>
+  <si>
+    <t>2026-01-22</t>
+  </si>
+  <si>
+    <t>videos\2026-01-22\33.mp4</t>
+  </si>
+  <si>
+    <t>Skills的最正确用法，是将整个Github压缩成你自己的超级技能库。</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/article/7597868669221290548/</t>
+  </si>
+  <si>
+    <t>articles\2026-01-22\34.txt</t>
+  </si>
+  <si>
+    <t>这可能是今年用过最合理的AI硬件形态</t>
+  </si>
+  <si>
+    <t>#玩儿个很新东西</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/video/7596896671923339264/</t>
+  </si>
+  <si>
+    <t>videos\2026-01-22\35.mp4</t>
+  </si>
+  <si>
+    <t>深度｜OpenAI联创：算力不是唯一瓶颈，如果在18年掌握现在的后训练技术，2个人就能手搓出ChatGPT</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/article/7597747397795545636/</t>
+  </si>
+  <si>
+    <t>articles\2026-01-22\36.txt</t>
+  </si>
+  <si>
+    <t>这个AI建模师无需训练​ 看图码出可编辑3D场景​ VIGA视觉逆向图形Agent，通过多模态AI协作与执行-验证循环，将单张图像自动转化为可编辑的3D场景程序。</t>
+  </si>
+  <si>
+    <t>#AI建模</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/video/7600195466525376522/</t>
+  </si>
+  <si>
+    <t>2026-01-28</t>
+  </si>
+  <si>
+    <t>videos\2026-01-28\37.mp4</t>
+  </si>
+  <si>
+    <t>双标的艺术，双标的审美。 ​​​</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/w/1855446215205900/</t>
+  </si>
+  <si>
+    <t>articles\2026-01-28\38.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">又是和Claude Code一起欢乐的一天
+简单来说有两点
+[一]把一个项目的所有repo，文档都放到一个workspace，在根目录启动Claude code，他就能有最全面的上下文
+[二]在claude.md给它一个身份，这样你就能从他的语气中判断是不是上下文太长而忘记了根本性的约束，需要重置了</t>
+  </si>
+  <si>
+    <t>#独立开发者</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/w/1855473407938572/</t>
+  </si>
+  <si>
+    <t>articles\2026-01-28\39.txt</t>
+  </si>
+  <si>
+    <t>黑客松冠军 ClaudeCode 配置开源，Skills 资源汇总，收藏这篇就足够了。</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/article/7600025324138725928/</t>
+  </si>
+  <si>
+    <t>articles\2026-01-28\40.txt</t>
+  </si>
+  <si>
+    <t>Anthropic CEO两万字长文：2027，人类命运的十字路口</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/article/7599917809056956963/</t>
+  </si>
+  <si>
+    <t>articles\2026-01-28\41.txt</t>
+  </si>
+  <si>
+    <t>一天吃透一件事：MCP Apps刚刚颠覆了人机交互</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/article/7599876639056577058/</t>
+  </si>
+  <si>
+    <t>articles\2026-01-28\42.txt</t>
+  </si>
+  <si>
+    <t>氛围编程将死！谷歌总监警告：只会写Prompt的程序员，2026年将被淘汰</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/article/7599167547170226722/</t>
+  </si>
+  <si>
+    <t>articles\2026-01-28\43.txt</t>
+  </si>
+  <si>
+    <t>让opencode+GLM-4.7+SKILL在一起</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/article/7599557869771571747/</t>
+  </si>
+  <si>
+    <t>articles\2026-01-28\44.txt</t>
+  </si>
+  <si>
+    <t>Claude统治一切，吞下这颗红药丸，焊工也是顶尖程序员</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/article/7599645553751851570/</t>
+  </si>
+  <si>
+    <t>articles\2026-01-28\45.txt</t>
+  </si>
+  <si>
+    <t>纽约大学：用表示自编码器让AI画图更快更好</t>
+  </si>
+  <si>
+    <t>https://www.toutiao.com/article/7599702298809385472/</t>
+  </si>
+  <si>
+    <t>articles\2026-01-28\46.txt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="宋体"/>
     </font>
     <font>
       <u/>
@@ -448,9 +599,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,62 +944,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B33" sqref="B33"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="1" max="1" width="6.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.796875" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.53125" customWidth="1"/>
+    <col min="7" max="7" width="9.06640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.9296875" customWidth="1"/>
+    <col min="9" max="9" width="9.06640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" ht="15.75" customHeight="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D2" t="s">
@@ -857,13 +1016,13 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J2">
@@ -874,13 +1033,13 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
@@ -892,13 +1051,13 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J3">
@@ -909,13 +1068,13 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
@@ -927,13 +1086,13 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J4">
@@ -944,13 +1103,13 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
@@ -962,13 +1121,13 @@
       <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J5">
@@ -979,13 +1138,13 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
@@ -997,13 +1156,13 @@
       <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J6">
@@ -1014,13 +1173,13 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D7" t="s">
@@ -1032,13 +1191,13 @@
       <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" t="s">
         <v>16</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J7">
@@ -1049,13 +1208,13 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
@@ -1067,13 +1226,13 @@
       <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J8">
@@ -1084,13 +1243,13 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
@@ -1102,13 +1261,13 @@
       <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J9">
@@ -1119,13 +1278,13 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D10" t="s">
@@ -1137,13 +1296,13 @@
       <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>1</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J10">
@@ -1154,13 +1313,13 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D11" t="s">
@@ -1172,13 +1331,13 @@
       <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J11">
@@ -1189,13 +1348,13 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
@@ -1207,13 +1366,13 @@
       <c r="F12" t="s">
         <v>15</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="H12" t="s">
         <v>16</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J12">
@@ -1224,13 +1383,13 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D13" t="s">
@@ -1242,30 +1401,30 @@
       <c r="F13" t="s">
         <v>47</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>48</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" t="s">
@@ -1277,13 +1436,13 @@
       <c r="F14" t="s">
         <v>47</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>1</v>
       </c>
       <c r="H14" t="s">
         <v>52</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J14">
@@ -1294,13 +1453,13 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D15" t="s">
@@ -1312,13 +1471,13 @@
       <c r="F15" t="s">
         <v>47</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="H15" t="s">
         <v>56</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J15">
@@ -1329,13 +1488,13 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>57</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D16" t="s">
@@ -1347,13 +1506,13 @@
       <c r="F16" t="s">
         <v>47</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>1</v>
       </c>
       <c r="H16" t="s">
         <v>59</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J16">
@@ -1364,13 +1523,13 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>61</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" t="s">
@@ -1382,13 +1541,13 @@
       <c r="F17" t="s">
         <v>47</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>1</v>
       </c>
       <c r="H17" t="s">
         <v>64</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J17">
@@ -1399,13 +1558,13 @@
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>65</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
@@ -1417,13 +1576,13 @@
       <c r="F18" t="s">
         <v>47</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>1</v>
       </c>
       <c r="H18" t="s">
         <v>68</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J18">
@@ -1434,13 +1593,13 @@
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>69</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D19" t="s">
@@ -1452,13 +1611,13 @@
       <c r="F19" t="s">
         <v>47</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>1</v>
       </c>
       <c r="H19" t="s">
         <v>71</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J19">
@@ -1469,13 +1628,13 @@
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D20" t="s">
@@ -1487,13 +1646,13 @@
       <c r="F20" t="s">
         <v>47</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>1</v>
       </c>
       <c r="H20" t="s">
         <v>75</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J20">
@@ -1504,13 +1663,13 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D21" t="s">
@@ -1522,13 +1681,13 @@
       <c r="F21" t="s">
         <v>47</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>1</v>
       </c>
       <c r="H21" t="s">
         <v>79</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J21">
@@ -1539,13 +1698,13 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>81</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D22" t="s">
@@ -1557,13 +1716,13 @@
       <c r="F22" t="s">
         <v>47</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>1</v>
       </c>
       <c r="H22" t="s">
         <v>83</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J22">
@@ -1574,13 +1733,13 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
@@ -1592,13 +1751,13 @@
       <c r="F23" t="s">
         <v>47</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>1</v>
       </c>
       <c r="H23" t="s">
         <v>87</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J23">
@@ -1609,13 +1768,13 @@
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>88</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
@@ -1627,13 +1786,13 @@
       <c r="F24" t="s">
         <v>47</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>1</v>
       </c>
       <c r="H24" t="s">
         <v>90</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J24">
@@ -1644,13 +1803,13 @@
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>91</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
@@ -1662,13 +1821,13 @@
       <c r="F25" t="s">
         <v>47</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>1</v>
       </c>
       <c r="H25" t="s">
         <v>94</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J25">
@@ -1679,13 +1838,13 @@
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>95</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D26" t="s">
@@ -1697,13 +1856,13 @@
       <c r="F26" t="s">
         <v>47</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>1</v>
       </c>
       <c r="H26" t="s">
         <v>97</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J26">
@@ -1714,13 +1873,13 @@
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>99</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D27" t="s">
@@ -1732,13 +1891,13 @@
       <c r="F27" t="s">
         <v>101</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>102</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J27">
@@ -1749,13 +1908,13 @@
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>103</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D28" t="s">
@@ -1767,13 +1926,13 @@
       <c r="F28" t="s">
         <v>101</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>1</v>
       </c>
       <c r="H28" t="s">
         <v>106</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J28">
@@ -1784,13 +1943,13 @@
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>107</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D29" t="s">
@@ -1802,13 +1961,13 @@
       <c r="F29" t="s">
         <v>101</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>1</v>
       </c>
       <c r="H29" t="s">
         <v>110</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J29">
@@ -1819,13 +1978,13 @@
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>111</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D30" t="s">
@@ -1837,13 +1996,13 @@
       <c r="F30" t="s">
         <v>101</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>1</v>
       </c>
       <c r="H30" t="s">
         <v>114</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="1" t="s">
         <v>53</v>
       </c>
       <c r="J30">
@@ -1853,36 +2012,172 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="31" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>121</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>129</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
       <c r="B35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="F35" t="s">
-        <v>101</v>
-      </c>
-      <c r="G35">
+        <v>128</v>
+      </c>
+      <c r="G35" s="1">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>117</v>
-      </c>
-      <c r="I35" t="s">
+        <v>132</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J35">
@@ -1892,73 +2187,423 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>31</v>
+    <row r="36" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D36" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" t="s">
-        <v>101</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>121</v>
-      </c>
-      <c r="I36" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36">
-        <v>2</v>
-      </c>
-      <c r="K36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>32</v>
-      </c>
-      <c r="B37" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" t="s">
-        <v>45</v>
-      </c>
       <c r="D37" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F37" t="s">
-        <v>101</v>
-      </c>
-      <c r="G37">
+        <v>128</v>
+      </c>
+      <c r="G37" s="1">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>125</v>
-      </c>
-      <c r="I37" t="s">
+        <v>139</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J37">
         <v>2</v>
       </c>
       <c r="K37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>144</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>147</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>151</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>154</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>156</v>
+      </c>
+      <c r="F42" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>157</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>160</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+      <c r="K43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>162</v>
+      </c>
+      <c r="F44" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>163</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>165</v>
+      </c>
+      <c r="F45" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>166</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>168</v>
+      </c>
+      <c r="F46" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>169</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>172</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47" t="s">
         <v>16</v>
       </c>
     </row>

--- a/favorite.xlsx
+++ b/favorite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="182">
   <si>
     <t>编号</t>
   </si>
@@ -473,6 +473,9 @@
     <t>articles\2026-01-28\38.txt</t>
   </si>
   <si>
+    <t>https://www.notion.so/2f6fb8a27c888163808bd8799e98f995</t>
+  </si>
+  <si>
     <t xml:space="preserve">又是和Claude Code一起欢乐的一天
 简单来说有两点
 [一]把一个项目的所有repo，文档都放到一个workspace，在根目录启动Claude code，他就能有最全面的上下文
@@ -488,6 +491,9 @@
     <t>articles\2026-01-28\39.txt</t>
   </si>
   <si>
+    <t>https://www.notion.so/Claude-Code-repo-workspace-Claude-code-clau-2f6fb8a27c88819499fbf6b7956edd18</t>
+  </si>
+  <si>
     <t>黑客松冠军 ClaudeCode 配置开源，Skills 资源汇总，收藏这篇就足够了。</t>
   </si>
   <si>
@@ -497,6 +503,9 @@
     <t>articles\2026-01-28\40.txt</t>
   </si>
   <si>
+    <t>https://www.notion.so/ClaudeCode-Skills-2f6fb8a27c88812db1a1d8cc951782ca</t>
+  </si>
+  <si>
     <t>Anthropic CEO两万字长文：2027，人类命运的十字路口</t>
   </si>
   <si>
@@ -506,6 +515,9 @@
     <t>articles\2026-01-28\41.txt</t>
   </si>
   <si>
+    <t>https://www.notion.so/Anthropic-CEO-2027-2f6fb8a27c8881e2ab51de19f0ef32fa</t>
+  </si>
+  <si>
     <t>一天吃透一件事：MCP Apps刚刚颠覆了人机交互</t>
   </si>
   <si>
@@ -515,6 +527,9 @@
     <t>articles\2026-01-28\42.txt</t>
   </si>
   <si>
+    <t>https://www.notion.so/MCP-Apps-2f6fb8a27c88811f89b2ff3e9ca64711</t>
+  </si>
+  <si>
     <t>氛围编程将死！谷歌总监警告：只会写Prompt的程序员，2026年将被淘汰</t>
   </si>
   <si>
@@ -524,6 +539,9 @@
     <t>articles\2026-01-28\43.txt</t>
   </si>
   <si>
+    <t>https://www.notion.so/Prompt-2026-2f6fb8a27c88817487def95752148b78</t>
+  </si>
+  <si>
     <t>让opencode+GLM-4.7+SKILL在一起</t>
   </si>
   <si>
@@ -533,6 +551,9 @@
     <t>articles\2026-01-28\44.txt</t>
   </si>
   <si>
+    <t>https://www.notion.so/opencode-GLM-4-7-SKILL-2f6fb8a27c888159b9e4d7e51464e4e5</t>
+  </si>
+  <si>
     <t>Claude统治一切，吞下这颗红药丸，焊工也是顶尖程序员</t>
   </si>
   <si>
@@ -542,6 +563,9 @@
     <t>articles\2026-01-28\45.txt</t>
   </si>
   <si>
+    <t>https://www.notion.so/Claude-2f6fb8a27c8881f4bdf6f483edfbbd69</t>
+  </si>
+  <si>
     <t>纽约大学：用表示自编码器让AI画图更快更好</t>
   </si>
   <si>
@@ -549,6 +573,9 @@
   </si>
   <si>
     <t>articles\2026-01-28\46.txt</t>
+  </si>
+  <si>
+    <t>https://www.notion.so/AI-2f6fb8a27c8881a88c81fe4283db4a85</t>
   </si>
 </sst>
 </file>
@@ -947,8 +974,8 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
@@ -2257,7 +2284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2292,7 +2319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2321,27 +2348,27 @@
         <v>16</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F40" t="s">
         <v>143</v>
@@ -2350,24 +2377,24 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>45</v>
@@ -2376,7 +2403,7 @@
         <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F41" t="s">
         <v>143</v>
@@ -2385,24 +2412,24 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>45</v>
@@ -2411,7 +2438,7 @@
         <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F42" t="s">
         <v>143</v>
@@ -2420,24 +2447,24 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>45</v>
@@ -2446,7 +2473,7 @@
         <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F43" t="s">
         <v>143</v>
@@ -2455,24 +2482,24 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>45</v>
@@ -2481,7 +2508,7 @@
         <v>13</v>
       </c>
       <c r="E44" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F44" t="s">
         <v>143</v>
@@ -2490,24 +2517,24 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>45</v>
@@ -2516,7 +2543,7 @@
         <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F45" t="s">
         <v>143</v>
@@ -2525,24 +2552,24 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>45</v>
@@ -2551,7 +2578,7 @@
         <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F46" t="s">
         <v>143</v>
@@ -2560,24 +2587,24 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" ht="13.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>45</v>
@@ -2586,7 +2613,7 @@
         <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F47" t="s">
         <v>143</v>
@@ -2595,16 +2622,16 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
